--- a/hw04/hw04.xlsx
+++ b/hw04/hw04.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack3\Documents\Jack\NTHU\2020_spring\Algorithm_EE39800\hw04\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A87559-49F0-4984-BAA6-2DAA8EF77D7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -20,38 +33,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
-    <t xml:space="preserve">V</t>
+    <t>V</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
+    <t>E</t>
   </si>
   <si>
-    <t xml:space="preserve">Connect1</t>
+    <t>Connect1</t>
   </si>
   <si>
-    <t xml:space="preserve">Connect2</t>
+    <t>Connect2</t>
   </si>
   <si>
-    <t xml:space="preserve">Connect3</t>
+    <t>Connect3</t>
   </si>
   <si>
-    <t xml:space="preserve">E*V</t>
+    <t>E*V</t>
   </si>
   <si>
-    <t xml:space="preserve">E lg V</t>
+    <t>E lg V</t>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00E+00"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK HK"/>
@@ -61,47 +74,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Noto Sans CJK HK"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Noto Sans CJK HK"/>
-      <family val="2"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,7 +93,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -121,57 +101,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -230,15 +173,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -247,7 +208,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -255,7 +216,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -276,6 +237,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -294,12 +256,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -309,19 +268,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -366,42 +337,47 @@
             <c:numRef>
               <c:f>工作表1!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.972914E-005</c:v>
+                  <c:v>1.972914E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.93202E-005</c:v>
+                  <c:v>6.9320199999999994E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0002742815</c:v>
+                  <c:v>2.7428149999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0008873081</c:v>
+                  <c:v>8.8730809999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.003471169</c:v>
+                  <c:v>3.4711690000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01366812</c:v>
+                  <c:v>1.3668120000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0535208</c:v>
+                  <c:v>5.35208E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2196945</c:v>
+                  <c:v>0.21969449999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.9528548</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.091326</c:v>
+                  <c:v>4.0913259999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CF15-4ADC-B439-EB191C241CAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -418,12 +394,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -433,19 +406,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -490,42 +475,47 @@
             <c:numRef>
               <c:f>工作表1!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.551079E-006</c:v>
+                  <c:v>2.5510790000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.689693E-006</c:v>
+                  <c:v>4.6896930000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.031876E-005</c:v>
+                  <c:v>1.0318760000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.738071E-005</c:v>
+                  <c:v>1.7380709999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.615141E-005</c:v>
+                  <c:v>3.6151410000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.110046E-005</c:v>
+                  <c:v>8.1100459999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0001583695</c:v>
+                  <c:v>1.5836950000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0003789186</c:v>
+                  <c:v>3.7891859999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0007115316</c:v>
+                  <c:v>7.1153160000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0013714</c:v>
+                  <c:v>1.3714E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CF15-4ADC-B439-EB191C241CAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -542,12 +532,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92d050"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="92d050"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -557,19 +544,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92d050"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -614,42 +613,47 @@
             <c:numRef>
               <c:f>工作表1!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.71933E-006</c:v>
+                  <c:v>3.7193300000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.009506E-006</c:v>
+                  <c:v>7.0095060000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.490116E-005</c:v>
+                  <c:v>1.4901159999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.549887E-005</c:v>
+                  <c:v>2.5498869999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.348921E-005</c:v>
+                  <c:v>5.3489209999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0001238489</c:v>
+                  <c:v>1.2384890000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0002336597</c:v>
+                  <c:v>2.3365969999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0005368114</c:v>
+                  <c:v>5.3681140000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00105809</c:v>
+                  <c:v>1.05809E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00206723</c:v>
+                  <c:v>2.0672300000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CF15-4ADC-B439-EB191C241CAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -666,12 +670,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="bfbfbf"/>
+                <a:srgbClr val="BFBFBF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -681,19 +682,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="bfbfbf"/>
+                <a:srgbClr val="BFBFBF"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -741,39 +754,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.43E-006</c:v>
+                  <c:v>1.4300000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.88E-006</c:v>
+                  <c:v>5.8799999999999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.532E-005</c:v>
+                  <c:v>2.5320000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.71376E-005</c:v>
+                  <c:v>9.7137600000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00040608</c:v>
+                  <c:v>4.0608000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0015548288</c:v>
+                  <c:v>1.5548287999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00652864</c:v>
+                  <c:v>6.5286399999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0258763785</c:v>
+                  <c:v>2.5876378500000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1044352</c:v>
+                  <c:v>0.10443520000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.416320476</c:v>
+                  <c:v>0.41632047599999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CF15-4ADC-B439-EB191C241CAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -790,9 +808,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="808080"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
                 <a:srgbClr val="808080"/>
@@ -810,14 +825,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -865,40 +892,53 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.86E-007</c:v>
+                  <c:v>2.8599999999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.87676821406943E-007</c:v>
+                  <c:v>6.8767682140694278E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6471039745106E-006</c:v>
+                  <c:v>1.6471039745106002E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.58605760166602E-006</c:v>
+                  <c:v>3.5860576016660191E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.13205651598074E-006</c:v>
+                  <c:v>8.1320565159807358E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.73350324757935E-005</c:v>
+                  <c:v>1.7335032475793484E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.88268419146096E-005</c:v>
+                  <c:v>3.8826841914609633E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3211269314383E-005</c:v>
+                  <c:v>8.3211269314382996E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000179834149384897</c:v>
+                  <c:v>1.7983414938489689E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000383766757749809</c:v>
+                  <c:v>3.8376675774980925E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CF15-4ADC-B439-EB191C241CAD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="15227751"/>
         <c:axId val="48334970"/>
       </c:scatterChart>
@@ -915,7 +955,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -928,7 +968,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -936,7 +976,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -962,7 +1002,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -972,13 +1012,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="48334970"/>
@@ -997,7 +1038,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1010,7 +1051,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1018,7 +1059,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1044,7 +1085,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1054,13 +1095,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="15227751"/>
@@ -1088,37 +1130,46 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1127,7 +1178,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1135,7 +1186,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1156,6 +1207,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1174,12 +1226,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1189,19 +1238,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1246,42 +1307,47 @@
             <c:numRef>
               <c:f>工作表1!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.972914E-005</c:v>
+                  <c:v>1.972914E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.93202E-005</c:v>
+                  <c:v>6.9320199999999994E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0002742815</c:v>
+                  <c:v>2.7428149999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0008873081</c:v>
+                  <c:v>8.8730809999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.003471169</c:v>
+                  <c:v>3.4711690000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01366812</c:v>
+                  <c:v>1.3668120000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0535208</c:v>
+                  <c:v>5.35208E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2196945</c:v>
+                  <c:v>0.21969449999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.9528548</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.091326</c:v>
+                  <c:v>4.0913259999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-45C2-46DE-9EE0-E70C24F1EB95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1298,12 +1364,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1313,19 +1376,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1370,42 +1445,47 @@
             <c:numRef>
               <c:f>工作表1!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.551079E-006</c:v>
+                  <c:v>2.5510790000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.689693E-006</c:v>
+                  <c:v>4.6896930000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.031876E-005</c:v>
+                  <c:v>1.0318760000000001E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.738071E-005</c:v>
+                  <c:v>1.7380709999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.615141E-005</c:v>
+                  <c:v>3.6151410000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.110046E-005</c:v>
+                  <c:v>8.1100459999999998E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0001583695</c:v>
+                  <c:v>1.5836950000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0003789186</c:v>
+                  <c:v>3.7891859999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0007115316</c:v>
+                  <c:v>7.1153160000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0013714</c:v>
+                  <c:v>1.3714E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-45C2-46DE-9EE0-E70C24F1EB95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1422,12 +1502,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="92d050"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="92d050"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1437,19 +1514,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92d050"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1494,42 +1583,47 @@
             <c:numRef>
               <c:f>工作表1!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.71933E-006</c:v>
+                  <c:v>3.7193300000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.009506E-006</c:v>
+                  <c:v>7.0095060000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.490116E-005</c:v>
+                  <c:v>1.4901159999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.549887E-005</c:v>
+                  <c:v>2.5498869999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.348921E-005</c:v>
+                  <c:v>5.3489209999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0001238489</c:v>
+                  <c:v>1.2384890000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0002336597</c:v>
+                  <c:v>2.3365969999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0005368114</c:v>
+                  <c:v>5.3681140000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00105809</c:v>
+                  <c:v>1.05809E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00206723</c:v>
+                  <c:v>2.0672300000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-45C2-46DE-9EE0-E70C24F1EB95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1546,12 +1640,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="bfbfbf"/>
+                <a:srgbClr val="BFBFBF"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1561,19 +1652,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="bfbfbf"/>
+                <a:srgbClr val="BFBFBF"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1621,39 +1724,44 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.43E-006</c:v>
+                  <c:v>1.4300000000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.88E-006</c:v>
+                  <c:v>5.8799999999999996E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.532E-005</c:v>
+                  <c:v>2.5320000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.71376E-005</c:v>
+                  <c:v>9.7137600000000003E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00040608</c:v>
+                  <c:v>4.0608000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0015548288</c:v>
+                  <c:v>1.5548287999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00652864</c:v>
+                  <c:v>6.5286399999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0258763785</c:v>
+                  <c:v>2.5876378500000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1044352</c:v>
+                  <c:v>0.10443520000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.416320476</c:v>
+                  <c:v>0.41632047599999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-45C2-46DE-9EE0-E70C24F1EB95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1670,9 +1778,6 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="808080"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
                 <a:srgbClr val="808080"/>
@@ -1690,14 +1795,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1745,40 +1862,53 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2.86E-007</c:v>
+                  <c:v>2.8599999999999999E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.87676821406943E-007</c:v>
+                  <c:v>6.8767682140694278E-7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6471039745106E-006</c:v>
+                  <c:v>1.6471039745106002E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.58605760166602E-006</c:v>
+                  <c:v>3.5860576016660191E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.13205651598074E-006</c:v>
+                  <c:v>8.1320565159807358E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.73350324757935E-005</c:v>
+                  <c:v>1.7335032475793484E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.88268419146096E-005</c:v>
+                  <c:v>3.8826841914609633E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3211269314383E-005</c:v>
+                  <c:v>8.3211269314382996E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.000179834149384897</c:v>
+                  <c:v>1.7983414938489689E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.000383766757749809</c:v>
+                  <c:v>3.8376675774980925E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-45C2-46DE-9EE0-E70C24F1EB95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="56214840"/>
         <c:axId val="41010828"/>
       </c:scatterChart>
@@ -1795,7 +1925,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1808,7 +1938,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1816,7 +1946,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1842,7 +1972,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1852,13 +1982,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="41010828"/>
@@ -1877,7 +2008,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1890,7 +2021,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1898,7 +2029,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:rPr lang="en-US" sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1924,7 +2055,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1934,13 +2065,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="56214840"/>
@@ -1968,35 +2100,1377 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>CollapsingFind test</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Connect2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.7206880000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6545940000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4686579999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9325490000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.698204E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1529919999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.327442E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.0554279999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.071453E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0655150000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E862-4807-8E18-97B82FC8140D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Connect3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.3153759999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0108640000000005E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.387596E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6392940000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2571299999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.052856E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.14982E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7304630000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5980169999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7972940000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E862-4807-8E18-97B82FC8140D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51076</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9600000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9999999999999998E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.8400000000000003E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1360000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3999999999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2768999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5599999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1075999999999997E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E862-4807-8E18-97B82FC8140D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="847315584"/>
+        <c:axId val="691497840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="847315584"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>V (Vertice)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="691497840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="691497840"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>CPU runtime(s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847315584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2005,19 +3479,25 @@
       <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>783720</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2670</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="圖表 1"/>
+        <xdr:cNvPr id="2" name="圖表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="244440" y="2025360"/>
-        <a:ext cx="4609440" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2040,14 +3520,20 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="圖表 2"/>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5052240" y="2012760"/>
-        <a:ext cx="4676040" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2057,29 +3543,357 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD39EED-42D3-4045-B7BA-CC18616F52F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.45"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.54"/>
+    <col min="1" max="6" width="11.5546875"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="9" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2114,385 +3928,438 @@
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:15">
+      <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="1">
         <v>143</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>1.972914E-005</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>2.551079E-006</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>3.71933E-006</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <f aca="false">A2*B2/10000000000</f>
-        <v>1.43E-006</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <f aca="false">B2*LOG(A2)/1000000000</f>
-        <v>2.86E-007</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="C2" s="2">
+        <v>1.972914E-5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.5510790000000001E-6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.7193300000000001E-6</v>
+      </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F11" si="0">A2*B2/10000000000</f>
+        <v>1.4300000000000001E-6</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G11" si="1">B2*LOG(A2)/1000000000</f>
+        <v>2.8599999999999999E-7</v>
+      </c>
+      <c r="I2">
         <v>100</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="1">
         <v>143</v>
       </c>
-      <c r="K2" s="3" t="n">
-        <v>4.315376E-007</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>4.720688E-007</v>
-      </c>
+      <c r="K2" s="3">
+        <v>4.7206880000000001E-7</v>
+      </c>
+      <c r="L2" s="3">
+        <v>4.3153759999999999E-7</v>
+      </c>
+      <c r="M2">
+        <f>I2/1000000000</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="O2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:15">
+      <c r="A3">
         <v>196</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>300</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>6.93202E-005</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>4.689693E-006</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>7.009506E-006</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <f aca="false">A3*B3/10000000000</f>
-        <v>5.88E-006</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <f aca="false">B3*LOG(A3)/1000000000</f>
-        <v>6.87676821406943E-007</v>
-      </c>
-      <c r="I3" s="0" t="n">
+      <c r="C3" s="2">
+        <v>6.9320199999999994E-5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.6896930000000002E-6</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7.0095060000000001E-6</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>5.8799999999999996E-6</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>6.8767682140694278E-7</v>
+      </c>
+      <c r="I3">
         <v>196</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>300</v>
       </c>
-      <c r="K3" s="3" t="n">
-        <v>8.010864E-007</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>8.654594E-007</v>
-      </c>
+      <c r="K3" s="3">
+        <v>8.6545940000000002E-7</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8.0108640000000005E-7</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M11" si="2">I3/1000000000</f>
+        <v>1.9600000000000001E-7</v>
+      </c>
+      <c r="O3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:15">
+      <c r="A4">
         <v>400</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>633</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>0.0002742815</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>1.031876E-005</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1.490116E-005</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <f aca="false">A4*B4/10000000000</f>
-        <v>2.532E-005</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <f aca="false">B4*LOG(A4)/1000000000</f>
-        <v>1.6471039745106E-006</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="C4" s="2">
+        <v>2.7428149999999998E-4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0318760000000001E-5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.4901159999999999E-5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2.5320000000000002E-5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.6471039745106002E-6</v>
+      </c>
+      <c r="I4">
         <v>400</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>633</v>
       </c>
-      <c r="K4" s="3" t="n">
-        <v>1.387596E-006</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>1.468658E-006</v>
-      </c>
+      <c r="K4" s="3">
+        <v>1.4686579999999999E-6</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1.387596E-6</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>3.9999999999999998E-7</v>
+      </c>
+      <c r="O4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:15">
+      <c r="A5">
         <v>784</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>1239</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>0.0008873081</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>1.738071E-005</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>2.549887E-005</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">A5*B5/10000000000</f>
-        <v>9.71376E-005</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <f aca="false">B5*LOG(A5)/1000000000</f>
-        <v>3.58605760166602E-006</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="C5" s="2">
+        <v>8.8730809999999999E-4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.7380709999999998E-5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.5498869999999999E-5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>9.7137600000000003E-5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>3.5860576016660191E-6</v>
+      </c>
+      <c r="I5">
         <v>784</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>1239</v>
       </c>
-      <c r="K5" s="3" t="n">
-        <v>2.639294E-006</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>2.932549E-006</v>
-      </c>
+      <c r="K5" s="3">
+        <v>2.9325490000000002E-6</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2.6392940000000001E-6</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>7.8400000000000003E-7</v>
+      </c>
+      <c r="O5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:15">
+      <c r="A6">
         <v>1600</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>2538</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>0.003471169</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>3.615141E-005</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>5.348921E-005</v>
-      </c>
-      <c r="F6" s="0" t="n">
-        <f aca="false">A6*B6/10000000000</f>
-        <v>0.00040608</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <f aca="false">B6*LOG(A6)/1000000000</f>
-        <v>8.13205651598074E-006</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="C6" s="2">
+        <v>3.4711690000000001E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.6151410000000002E-5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5.3489209999999997E-5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>4.0608000000000002E-4</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>8.1320565159807358E-6</v>
+      </c>
+      <c r="I6">
         <v>1600</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>2538</v>
       </c>
-      <c r="K6" s="3" t="n">
-        <v>5.25713E-006</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>5.698204E-006</v>
-      </c>
+      <c r="K6" s="3">
+        <v>5.698204E-6</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5.2571299999999996E-6</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999999E-6</v>
+      </c>
+      <c r="O6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:15">
+      <c r="A7">
         <v>3136</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>4958</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0.01366812</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>8.110046E-005</v>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>0.0001238489</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <f aca="false">A7*B7/10000000000</f>
-        <v>0.0015548288</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <f aca="false">B7*LOG(A7)/1000000000</f>
-        <v>1.73350324757935E-005</v>
-      </c>
-      <c r="I7" s="0" t="n">
+      <c r="C7" s="2">
+        <v>1.3668120000000001E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.1100459999999998E-5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.2384890000000001E-4</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.5548287999999999E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.7335032475793484E-5</v>
+      </c>
+      <c r="I7">
         <v>3136</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>4958</v>
       </c>
-      <c r="K7" s="3" t="n">
-        <v>1.052856E-005</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>1.152992E-005</v>
-      </c>
+      <c r="K7" s="3">
+        <v>1.1529919999999999E-5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.052856E-5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>3.1360000000000001E-6</v>
+      </c>
+      <c r="O7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:15">
+      <c r="A8">
         <v>6400</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>10201</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>0.0535208</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0.0001583695</v>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>0.0002336597</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <f aca="false">A8*B8/10000000000</f>
-        <v>0.00652864</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <f aca="false">B8*LOG(A8)/1000000000</f>
-        <v>3.88268419146096E-005</v>
-      </c>
-      <c r="I8" s="0" t="n">
+      <c r="C8" s="2">
+        <v>5.35208E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.5836950000000001E-4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.3365969999999999E-4</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>6.5286399999999996E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>3.8826841914609633E-5</v>
+      </c>
+      <c r="I8">
         <v>6400</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>10201</v>
       </c>
-      <c r="K8" s="3" t="n">
-        <v>2.14982E-005</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>2.327442E-005</v>
-      </c>
+      <c r="K8" s="3">
+        <v>2.327442E-5</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2.14982E-5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>6.3999999999999997E-6</v>
+      </c>
+      <c r="O8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:15">
+      <c r="A9">
         <v>12769</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>20265</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>0.2196945</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0.0003789186</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0.0005368114</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <f aca="false">A9*B9/10000000000</f>
-        <v>0.0258763785</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <f aca="false">B9*LOG(A9)/1000000000</f>
-        <v>8.3211269314383E-005</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="C9" s="2">
+        <v>0.21969449999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3.7891859999999999E-4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5.3681140000000002E-4</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2.5876378500000002E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>8.3211269314382996E-5</v>
+      </c>
+      <c r="I9">
         <v>12769</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>20265</v>
       </c>
-      <c r="K9" s="3" t="n">
-        <v>4.730463E-005</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>5.055428E-005</v>
-      </c>
+      <c r="K9" s="3">
+        <v>5.0554279999999997E-5</v>
+      </c>
+      <c r="L9" s="3">
+        <v>4.7304630000000003E-5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>1.2768999999999999E-5</v>
+      </c>
+      <c r="O9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:15">
+      <c r="A10">
         <v>25600</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>40795</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>0.9528548</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>0.0007115316</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0.00105809</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <f aca="false">A10*B10/10000000000</f>
-        <v>0.1044352</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <f aca="false">B10*LOG(A10)/1000000000</f>
-        <v>0.000179834149384897</v>
-      </c>
-      <c r="I10" s="0" t="n">
+      <c r="D10" s="2">
+        <v>7.1153160000000004E-4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.05809E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.10443520000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.7983414938489689E-4</v>
+      </c>
+      <c r="I10">
         <v>25600</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>40795</v>
       </c>
-      <c r="K10" s="3" t="n">
-        <v>9.598017E-005</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>0.0001071453</v>
-      </c>
+      <c r="K10" s="3">
+        <v>1.071453E-4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>9.5980169999999998E-5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>2.5599999999999999E-5</v>
+      </c>
+      <c r="O10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:15">
+      <c r="A11">
         <v>51076</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>81510</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>4.091326</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0.0013714</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0.00206723</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">A11*B11/10000000000</f>
-        <v>0.416320476</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">B11*LOG(A11)/1000000000</f>
-        <v>0.000383766757749809</v>
-      </c>
-      <c r="I11" s="0" t="n">
+      <c r="C11" s="2">
+        <v>4.0913259999999996</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.3714E-3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.0672300000000002E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.41632047599999999</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>3.8376675774980925E-4</v>
+      </c>
+      <c r="I11">
         <v>51076</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>81510</v>
       </c>
-      <c r="K11" s="3" t="n">
-        <v>0.0002797294</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>0.0003065515</v>
-      </c>
+      <c r="K11" s="3">
+        <v>3.0655150000000002E-4</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2.7972940000000002E-4</v>
+      </c>
+      <c r="M11">
+        <f>I11/1000000000</f>
+        <v>5.1075999999999997E-5</v>
+      </c>
+      <c r="O11" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,標準"頁 &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>